--- a/data/grid_world_cliff.xlsx
+++ b/data/grid_world_cliff.xlsx
@@ -14,18 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
-    <t>W</t>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>G</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>EOG</t>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -296,7 +303,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -305,30 +312,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -337,109 +328,73 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -454,9 +409,6 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
